--- a/TsvToCsv/img/max_2019_ResultsCMC_subject01_walk1_Actuation_force.xlsx
+++ b/TsvToCsv/img/max_2019_ResultsCMC_subject01_walk1_Actuation_force.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takagiyugo/DDrive/08_参考資料/src/test_tsv_to_csv/img/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takagiyugo/DDrive/08_参考資料/Corona/TsvToCsv/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3509CA-B148-3246-BEB2-3E6D3DC05ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D1E417-9723-724E-8B04-48D64983C16F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25000" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25000" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="max_2019_ResultsCMC_subject01_w" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>glut_med2_r</t>
   </si>
@@ -123,27 +123,21 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>EC 45 flat ∅42.8 mm, ブラシレス, 51 W, ホールセンサ付き</t>
-  </si>
-  <si>
-    <t>EC 45 flat ∅42.8 mm, ブラシレス, 52 W, ホールセンサ付き</t>
-  </si>
-  <si>
-    <t>EC 45 flat ∅42.8 mm, ブラシレス, 53 W, ホールセンサ付き</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>EC 60 flat ∅60 mm, 150 W (maxon)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>EC 60 flat ∅60 mm, 151 W (maxon)</t>
-  </si>
-  <si>
     <t>https://maxonjapan.com/mmc/</t>
   </si>
   <si>
     <t>モタドラマニュアル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>筋</t>
+    <rPh sb="0" eb="1">
+      <t>キn</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -151,8 +145,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -770,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +791,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,15 +1171,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1286,7 +1311,7 @@
         <v>2.4376999999999999E-2</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E12" si="1">(D4*60) / (2*PI()*$B$1)</f>
+        <f t="shared" ref="E4:E10" si="1">(D4*60) / (2*PI()*$B$1)</f>
         <v>15.518880191004532</v>
       </c>
       <c r="F4" s="5">
@@ -1303,7 +1328,7 @@
         <v>37200</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1">
         <v>651607</v>
@@ -1353,7 +1378,7 @@
         <v>37200</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1">
         <v>651607</v>
@@ -1390,7 +1415,7 @@
         <v>72.235335711232352</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F9" si="2">I6+L6+O6</f>
+        <f t="shared" ref="F6:F8" si="2">I6+L6+O6</f>
         <v>85100</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1400,7 +1425,7 @@
         <v>37200</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1">
         <v>651607</v>
@@ -1472,7 +1497,7 @@
         <v>46700</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1">
         <v>625858</v>
@@ -1522,7 +1547,7 @@
         <v>46700</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="1">
         <v>625858</v>
@@ -1571,13 +1596,205 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12">
+        <v>562.17658200000005</v>
+      </c>
+      <c r="D19" s="12">
+        <v>484.57407899999998</v>
+      </c>
+      <c r="E19" s="12">
+        <v>509.72116599999998</v>
+      </c>
+      <c r="F19" s="12">
+        <v>423.677975</v>
+      </c>
+      <c r="G19" s="10">
+        <v>49.950833000000003</v>
+      </c>
+      <c r="H19" s="12">
+        <v>133.55416500000001</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="12">
+        <v>898.301514</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1879.0363219999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" ref="C20:H20" si="3" xml:space="preserve"> C19*$B$1</f>
+        <v>8.4326487300000004</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="3"/>
+        <v>7.2686111849999993</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="3"/>
+        <v>7.6458174899999998</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="3"/>
+        <v>6.3551696249999994</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="3"/>
+        <v>0.74926249499999997</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="3"/>
+        <v>2.003312475</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="11">
+        <f xml:space="preserve"> L19*$B$1</f>
+        <v>13.474522709999999</v>
+      </c>
+      <c r="M20" s="11">
+        <f xml:space="preserve"> M19*$B$1</f>
+        <v>28.185544829999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1.3405E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2.4376999999999999E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.1647E-2</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.113467</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.15857099999999999</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1.3474E-2</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0.128801</v>
+      </c>
+      <c r="M21" s="8">
+        <v>5.7465000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" ref="C22:H22" si="4">(C21*60) / (2*PI()*$B$1)</f>
+        <v>8.5338880485874284</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="4"/>
+        <v>15.518880191004532</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="4"/>
+        <v>13.780908212441036</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="4"/>
+        <v>72.235335711232352</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="4"/>
+        <v>100.94943392409975</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="4"/>
+        <v>8.5778148128807921</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="11">
+        <f>(L21*60) / (2*PI()*$B$1)</f>
+        <v>81.997263300716853</v>
+      </c>
+      <c r="M22" s="11">
+        <f>(M21*60) / (2*PI()*$B$1)</f>
+        <v>36.583355219103069</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="H24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="H26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
